--- a/notes/Printed Parts Spreadsheet.xlsx
+++ b/notes/Printed Parts Spreadsheet.xlsx
@@ -196,67 +196,19 @@
     <t xml:space="preserve">Tensioner_Wheels.3mf</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Left_Tensioner_-_tension_wheel.stl, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Right_Tensioner_-_tension_wheel.stl</t>
-    </r>
+    <t xml:space="preserve">Left_Tensioner_-_tension_wheel.stl, Right_Tensioner_-_tension_wheel.stl</t>
   </si>
   <si>
     <t xml:space="preserve">Tensioner_Idler_Holder.3mf</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Left_Tensioner_-_idler_holder.stl, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Right_Tensioner_-_idler_holder.stl</t>
-    </r>
+    <t xml:space="preserve">Left_Tensioner_-_idler_holder.stl, Right_Tensioner_-_idler_holder.stl</t>
   </si>
   <si>
     <t xml:space="preserve">Bed_Frame_Covers.3mf</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Bed_frame_cover_-_front_left.stl, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Bed_frame_cover_-_front_right.stl, Bed_frame_cover_-_Rear_left.stl, Bed_frame_cover_-_Rear_right.stl</t>
-    </r>
+    <t xml:space="preserve">Bed_frame_cover_-_front_left.stl, Bed_frame_cover_-_front_right.stl, Bed_frame_cover_-_Rear_left.stl, Bed_frame_cover_-_Rear_right.stl</t>
   </si>
   <si>
     <t xml:space="preserve">CR-10_Bed_Holders-M4_screws.3mf</t>
@@ -268,89 +220,25 @@
     <t xml:space="preserve">Anet_E12_Bed_Holders-M3_Screws.3mf</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Bed_Holder_-_Front_left_For_Anet_E12_bed_M3_Screw.stl, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Bed_Holder_-_Front_right_For_Anet_E12_bed_M3_Screw.stl, Bed_Holder_-_Rear_right_For_Anet_E12_bed_M3_Screw.stl</t>
-    </r>
+    <t xml:space="preserve">Bed_Holder_-_Front_left_For_Anet_E12_bed_M3_Screw.stl, Bed_Holder_-_Front_right_For_Anet_E12_bed_M3_Screw.stl, Bed_Holder_-_Rear_right_For_Anet_E12_bed_M3_Screw.stl</t>
   </si>
   <si>
     <t xml:space="preserve">XY_Corner_Tops.3mf</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Right_corner_-_Top.stl, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Left_corner_-_Top.stl</t>
-    </r>
+    <t xml:space="preserve">Right_corner_-_Top.stl, Left_corner_-_Top.stl</t>
   </si>
   <si>
     <t xml:space="preserve">XY_Corner_Blocks.3mf</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Left_corner_-_Block.stl, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Right_corner_-_Block.stl</t>
-    </r>
+    <t xml:space="preserve">Left_corner_-_Block.stl, Right_corner_-_Block.stl</t>
   </si>
   <si>
     <t xml:space="preserve">XY_Corner_Caps.3mf</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Right_Corner_-_cap.stl, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Left_corner_-_cap.stl</t>
-    </r>
+    <t xml:space="preserve">Right_Corner_-_cap.stl, Left_corner_-_cap.stl</t>
   </si>
   <si>
     <t xml:space="preserve">XY_Corner_Bottom_Aux.3mf</t>
@@ -362,45 +250,13 @@
     <t xml:space="preserve">Fan_Motor_Mounts.3mf</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Left_motor_40mm_fan_mount.stl, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Right_motor_40mm_fan_mount.stl</t>
-    </r>
+    <t xml:space="preserve">Left_motor_40mm_fan_mount.stl, Right_motor_40mm_fan_mount.stl</t>
   </si>
   <si>
     <t xml:space="preserve">Y_Endstops.3mf</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Y_Endstop_-_Front_Left_optional.stl, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Y_Endstop_-_Front_Left_-_Rear_left.stl</t>
-    </r>
+    <t xml:space="preserve">Y_Endstop_-_Front_Left_optional.stl, Y_Endstop_-_Front_Left_-_Rear_left.stl</t>
   </si>
   <si>
     <t xml:space="preserve">Z Axis</t>
@@ -412,23 +268,7 @@
     <t xml:space="preserve">Z_Motor_Mounts.3mf</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Left_Z_motor_mount.stl, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Right_Z_motor_mount.stl</t>
-    </r>
+    <t xml:space="preserve">Left_Z_motor_mount.stl, Right_Z_motor_mount.stl</t>
   </si>
   <si>
     <t xml:space="preserve">Z_Rail_Stoppers.3mf</t>
@@ -600,7 +440,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -643,17 +483,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -698,7 +527,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -716,14 +545,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -750,7 +571,7 @@
       <selection pane="topLeft" activeCell="F65" activeCellId="0" sqref="F65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.77"/>
@@ -1471,7 +1292,7 @@
       <c r="C52" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1527,7 +1348,7 @@
       <c r="C56" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1636,7 +1457,7 @@
       <c r="A65" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1713,7 +1534,7 @@
       <c r="C70" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="E70" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1826,7 +1647,7 @@
       <c r="C79" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="E79" s="4" t="s">
         <v>97</v>
       </c>
     </row>
